--- a/LogicHookApp-Bug_Report-Hudha_M.xlsx
+++ b/LogicHookApp-Bug_Report-Hudha_M.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Testing\Manual Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{276DC872-C5EF-4DB9-8600-8531D24EA2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6800933-6E2B-4FA7-B83F-A2A2B371C303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{9D0F46B1-F873-4E9E-B66F-165E2F700B64}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="9" xr2:uid="{9D0F46B1-F873-4E9E-B66F-165E2F700B64}"/>
   </bookViews>
   <sheets>
     <sheet name="REGISTER PAGE" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="252">
   <si>
     <t>BUG ID</t>
   </si>
@@ -271,9 +271,6 @@
 4.Click submit button</t>
   </si>
   <si>
-    <t>Should provide a max standard character limit</t>
-  </si>
-  <si>
     <t>Password field max character limit is 100</t>
   </si>
   <si>
@@ -326,24 +323,6 @@
   </si>
   <si>
     <t>DEF_LH_LP_04</t>
-  </si>
-  <si>
-    <t>Should able to login 
-after entering valid 
-email and password</t>
-  </si>
-  <si>
-    <t>User not able to logging in after enter valid credentials</t>
-  </si>
-  <si>
-    <t>1.Open LogicHook
-2.Click on Login
-3.Enter valid email and password 
-4.Click on submit</t>
-  </si>
-  <si>
-    <t>hudaumerm@gmail.com
-demo@12345</t>
   </si>
   <si>
     <t>Critical</t>
@@ -705,9 +684,6 @@
     <t>User hould not able to click on the SEND MESSAGE button without filling the mandatory fields</t>
   </si>
   <si>
-    <t xml:space="preserve">Validation message are nit showing after skipping the mandatory field which marked with asterik symbol </t>
-  </si>
-  <si>
     <t>1.Open LogicHook
 2.Click on Login
 3.After successful login user is taken to dashboard
@@ -949,17 +925,6 @@
     <t>Application can be done any action realtime without any loading</t>
   </si>
   <si>
-    <t>Should provide a timer in the OTP section</t>
-  </si>
-  <si>
-    <t>No timer is shows in the OTP to know the OTP expire or not</t>
-  </si>
-  <si>
-    <t>1.Open LogicHook
-2.Click on Login
-3.Click on Login with OTP checkbox</t>
-  </si>
-  <si>
     <t>Should not accept leading or trailing space in email field</t>
   </si>
   <si>
@@ -972,6 +937,96 @@
   </si>
   <si>
     <t xml:space="preserve">   hudaumermm@gmail.com</t>
+  </si>
+  <si>
+    <t>Here’s a more user-friendly version of that message:
+"Please keep your input under 100 characters."</t>
+  </si>
+  <si>
+    <t>Here’s a suggestion for that validation message:
+"Email addresses with consecutive dots (e.g., user..@domain.com) are not allowed. Please enter a valid email."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here’s a suggestion for that validation message:
+"Please enter a valid email address. The top-level domain (e.g., .com, .org) seems incorrect."
+</t>
+  </si>
+  <si>
+    <t>Should not accept an email without the .com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here's a suggestion for that validation message:
+"Please enter a valid email address with a proper domain (e.g., user@domain.com)."
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here's a suggestion for that validation message:
+"Please enter a valid email address. Multiple symbols (e.g., user@@domain.com) are not allowed."
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here's a suggestion for that validation message:
+"Please enter a valid email address. Email addresses with an IP address as the domain are not allowed."
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here's a suggestion for that validation message:
+"Please enter a valid email address. Email addresses with only a numeric domain are not allowed."
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here’s a suggestion for that validation message:
+"Please enter a valid email address. The domain must include a dot (e.g., user@domain.com)."
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here’s a suggestion for that validation message:
+"Please enter a valid phone number. A 10-digit number starting with 0 is not allowed."
+</t>
+  </si>
+  <si>
+    <t>Should provide a max standard character limit for password field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here’s a suggestion for that validation message:
+"Password must be no more than 20 characters long."
+</t>
+  </si>
+  <si>
+    <t>Here’s a suggestion for that validation message:
+"Please remove any leading or trailing spaces from your email address."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide validation:
+"Please enter a valid number for the desired amount."
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validation message are not showing after skipping the mandatory field which marked with asterik symbol </t>
+  </si>
+  <si>
+    <t>Here’s a suggestion for that validation message:
+"This field is required. Please fill it in before proceeding."</t>
+  </si>
+  <si>
+    <t>Here’s a suggestion for that validation message:
+"Subject must be no more than 100 characters long."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here’s a suggestion for that validation message:
+"Subject must be at least 5 characters long."
+</t>
+  </si>
+  <si>
+    <t>Here’s a suggestion for that validation message:
+"Your message must be no more than 500 characters long."</t>
+  </si>
+  <si>
+    <t>Here’s a suggestion for that validation message:"Your message must be at least 10 characters long."</t>
+  </si>
+  <si>
+    <t>Here’s a suggestion for that validation message:
+"Please enter a valid pincode. Only numbers are allowed, no letters or special characters."</t>
   </si>
 </sst>
 </file>
@@ -1126,11 +1181,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1147,11 +1199,19 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1159,22 +1219,14 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1493,8 +1545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A33911A-A7A3-4D96-8871-4C4826D2A61A}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1507,405 +1559,438 @@
     <col min="7" max="7" width="23.88671875" customWidth="1"/>
     <col min="8" max="8" width="21.21875" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-    </row>
-    <row r="2" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+    <row r="1" spans="1:15" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+    </row>
+    <row r="2" spans="1:15" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:15" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="16">
+        <v>45706</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:15" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:15" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="12" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:15" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="13">
-        <v>45706</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:15" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:15" s="16" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:15" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:15" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>15</v>
+      <c r="I11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="1"/>
       <c r="F12" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>15</v>
+      <c r="I12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="1"/>
       <c r="F13" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>15</v>
+      <c r="I13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="1"/>
       <c r="F14" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="I14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F15" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="I15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>45</v>
       </c>
       <c r="F16" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="I16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F17" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="I17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>47</v>
       </c>
       <c r="F18" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="I18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F19" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="I19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E20" t="s">
@@ -1914,50 +1999,56 @@
       <c r="F20" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="I20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>50</v>
       </c>
       <c r="F21" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="I21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>68</v>
       </c>
       <c r="E22" t="s">
@@ -1966,97 +2057,103 @@
       <c r="F22" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="I22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="I23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" s="2" t="s">
+      <c r="B25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -2095,7 +2192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E25451-289C-496D-A19B-3DBFAEC783FC}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2107,26 +2204,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>227</v>
+        <v>222</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2140,7 +2237,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I5"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2151,43 +2248,44 @@
     <col min="4" max="4" width="31.44140625" customWidth="1"/>
     <col min="5" max="5" width="19.21875" customWidth="1"/>
     <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="10" max="10" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2198,80 +2296,37 @@
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
     </row>
-    <row r="3" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J5" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2287,7 +2342,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2298,180 +2353,180 @@
     <col min="4" max="4" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="A2" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="D7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="F7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+    <row r="8" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="D8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" s="10" t="s">
+      <c r="F8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2493,7 +2548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A045B94-5371-45FA-92E4-E6AF76F014CB}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -2507,71 +2562,71 @@
     <col min="7" max="7" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="A2" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2601,94 +2656,94 @@
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="A2" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2705,8 +2760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483F19BA-80E4-43F2-B9C5-21849F7A9C3D}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2723,112 +2778,112 @@
     <col min="10" max="10" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="A2" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>140</v>
+      <c r="D5" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>
@@ -2839,27 +2894,30 @@
       <c r="I5" t="s">
         <v>15</v>
       </c>
+      <c r="J5" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="E6" t="s">
-        <v>141</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="I6" t="s">
@@ -2868,21 +2926,21 @@
     </row>
     <row r="7" spans="1:10" ht="216" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="I7" t="s">
@@ -2903,7 +2961,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2917,120 +2975,120 @@
     <col min="10" max="10" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="A2" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D5" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3045,10 +3103,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C45AF5D-B015-4858-AD99-3373DF2D316B}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3061,239 +3120,254 @@
     <col min="6" max="6" width="24.5546875" customWidth="1"/>
     <col min="7" max="7" width="24.21875" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" ht="144" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="2"/>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F5" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="C10" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>15</v>
+      <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -3309,8 +3383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7380A5AE-DE21-4898-A227-7C8A1C26CAF8}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3320,226 +3394,230 @@
     <col min="3" max="3" width="25.109375" customWidth="1"/>
     <col min="4" max="4" width="19.21875" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="10" max="10" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="A2" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F6" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F7" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F8" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>15</v>
+      <c r="I8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F9" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="E10" t="s">
         <v>59</v>
@@ -3547,10 +3625,10 @@
       <c r="F10" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
